--- a/Document/Android/WebView/android_webview.xlsx
+++ b/Document/Android/WebView/android_webview.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>加载网络资源(网页)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,24 @@
   <si>
     <t>1 调用系统默认的浏览器加载URL对应的网页</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//打开本包内asset目录下的index.html文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wView.loadUrl(" file:///android_asset/index.html ");   </t>
+  </si>
+  <si>
+    <t>//打开本地sd卡内的index.html文件</t>
+  </si>
+  <si>
+    <t>wView.loadUrl("content://com.android.htmlfileprovider/sdcard/index.html");</t>
+  </si>
+  <si>
+    <t>//打开指定URL的html文件</t>
+  </si>
+  <si>
+    <t>wView.loadUrl(" http://m.oschina.net");</t>
   </si>
 </sst>
 </file>
@@ -602,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -631,6 +649,36 @@
     <row r="6" spans="2:3">
       <c r="C6" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
